--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.129231</v>
+        <v>0.126423</v>
       </c>
       <c r="D2" t="n">
-        <v>1.032229</v>
+        <v>0.502932</v>
       </c>
       <c r="E2" t="n">
         <v>0.325</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.126423</v>
+        <v>0.128012</v>
       </c>
       <c r="D2" t="n">
-        <v>0.502932</v>
+        <v>0.899878</v>
       </c>
       <c r="E2" t="n">
         <v>0.325</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,28 +507,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.128012</v>
+        <v>0.125294</v>
       </c>
       <c r="D2" t="n">
-        <v>0.899878</v>
+        <v>0.7422339999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.325</v>
+        <v>0.3250000000000003</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.01700000000000035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.325</v>
+        <v>0.3250000000000003</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02</v>
+        <v>0.01700000000000035</v>
       </c>
       <c r="I2" t="n">
-        <v>0.325</v>
+        <v>0.3250000000000003</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02</v>
+        <v>0.01700000000000035</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.125294</v>
+        <v>0.123034</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7422339999999999</v>
+        <v>0.886757</v>
       </c>
       <c r="E2" t="n">
         <v>0.3250000000000003</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.123034</v>
+        <v>0.124038</v>
       </c>
       <c r="D2" t="n">
-        <v>0.886757</v>
+        <v>0.980725</v>
       </c>
       <c r="E2" t="n">
         <v>0.3250000000000003</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.124038</v>
+        <v>0.124317</v>
       </c>
       <c r="D2" t="n">
-        <v>0.980725</v>
+        <v>1.015155</v>
       </c>
       <c r="E2" t="n">
         <v>0.3250000000000003</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.124317</v>
+        <v>0.123717</v>
       </c>
       <c r="D2" t="n">
-        <v>1.015155</v>
+        <v>0.801791</v>
       </c>
       <c r="E2" t="n">
         <v>0.3250000000000003</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.123717</v>
+        <v>0.134456</v>
       </c>
       <c r="D2" t="n">
-        <v>0.801791</v>
+        <v>0.845573</v>
       </c>
       <c r="E2" t="n">
         <v>0.3250000000000003</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.134456</v>
+        <v>0.119114</v>
       </c>
       <c r="D2" t="n">
-        <v>0.845573</v>
+        <v>0.893018</v>
       </c>
       <c r="E2" t="n">
         <v>0.3250000000000003</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.119114</v>
+        <v>0.124584</v>
       </c>
       <c r="D2" t="n">
-        <v>0.893018</v>
+        <v>0.870103</v>
       </c>
       <c r="E2" t="n">
         <v>0.3250000000000003</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.124584</v>
+        <v>0.121889</v>
       </c>
       <c r="D2" t="n">
-        <v>0.870103</v>
+        <v>1.110106</v>
       </c>
       <c r="E2" t="n">
         <v>0.3250000000000003</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.121889</v>
+        <v>0.124683</v>
       </c>
       <c r="D2" t="n">
-        <v>1.110106</v>
+        <v>0.911072</v>
       </c>
       <c r="E2" t="n">
         <v>0.3250000000000003</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.124683</v>
+        <v>0.128643</v>
       </c>
       <c r="D2" t="n">
-        <v>0.911072</v>
+        <v>0.824592</v>
       </c>
       <c r="E2" t="n">
         <v>0.3250000000000003</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.128643</v>
+        <v>0.128777</v>
       </c>
       <c r="D2" t="n">
-        <v>0.824592</v>
+        <v>0.891397</v>
       </c>
       <c r="E2" t="n">
         <v>0.3250000000000003</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.128777</v>
+        <v>0.131358</v>
       </c>
       <c r="D2" t="n">
-        <v>0.891397</v>
+        <v>0.902805</v>
       </c>
       <c r="E2" t="n">
         <v>0.3250000000000003</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.131358</v>
+        <v>0.132637</v>
       </c>
       <c r="D2" t="n">
-        <v>0.902805</v>
+        <v>0.85766</v>
       </c>
       <c r="E2" t="n">
         <v>0.3250000000000003</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.132637</v>
+        <v>0.139132</v>
       </c>
       <c r="D2" t="n">
-        <v>0.85766</v>
+        <v>0.925352</v>
       </c>
       <c r="E2" t="n">
         <v>0.3250000000000003</v>

--- a/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_jitter_out_heuristic/instance_generator_instances_instance_jitter_out_heuristic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,62 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>cumulative_max_delay_app1</t>
+          <t>max_delay_app1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>cumulative_max_jitter_app1</t>
+          <t>max_jitter_app1</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>cumulative_max_delay_app2</t>
+          <t>max_delay_app2</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cumulative_max_jitter_app2</t>
+          <t>max_jitter_app2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_delay_app1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>mean_jitter_app1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>mean_delay_app2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>mean_jitter_app2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>mean10_delay_app1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>mean10_jitter_app1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>mean10_delay_app2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>mean10_jitter_app2</t>
         </is>
       </c>
     </row>
@@ -507,10 +547,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.139132</v>
+        <v>0.126611</v>
       </c>
       <c r="D2" t="n">
-        <v>0.925352</v>
+        <v>0.883201</v>
       </c>
       <c r="E2" t="n">
         <v>0.3250000000000003</v>
@@ -534,6 +574,30 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.3250000000000003</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.01700000000000035</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3250000000000003</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01700000000000035</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>0</v>
       </c>
     </row>
